--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1871115278297741</v>
+        <v>0.3091244558333295</v>
       </c>
       <c r="D2">
-        <v>0.3540147191001428</v>
+        <v>0.3691090635547518</v>
       </c>
       <c r="E2">
-        <v>0.5233410145288997</v>
+        <v>0.5555531193784313</v>
       </c>
       <c r="F2">
-        <v>0.6193230100886895</v>
+        <v>0.694625920618686</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1871115278297741</v>
+        <v>0.3091244558333295</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8490500100471277</v>
+        <v>0.883594279890725</v>
       </c>
       <c r="E3">
-        <v>0.3931276555327949</v>
+        <v>0.5320705157219816</v>
       </c>
       <c r="F3">
-        <v>0.3861378316670403</v>
+        <v>0.5194279257756866</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3540147191001428</v>
+        <v>0.3691090635547518</v>
       </c>
       <c r="C4">
-        <v>0.8490500100471277</v>
+        <v>0.883594279890725</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.4797188830981745</v>
+        <v>0.4578540100873303</v>
       </c>
       <c r="F4">
-        <v>0.5728005186310243</v>
+        <v>0.6327622461994493</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5233410145288997</v>
+        <v>0.5555531193784313</v>
       </c>
       <c r="C5">
-        <v>0.3931276555327949</v>
+        <v>0.5320705157219816</v>
       </c>
       <c r="D5">
-        <v>0.4797188830981745</v>
+        <v>0.4578540100873303</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9833767460796872</v>
+        <v>0.9849505594411752</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6193230100886895</v>
+        <v>0.694625920618686</v>
       </c>
       <c r="C6">
-        <v>0.3861378316670403</v>
+        <v>0.5194279257756866</v>
       </c>
       <c r="D6">
-        <v>0.5728005186310243</v>
+        <v>0.6327622461994493</v>
       </c>
       <c r="E6">
-        <v>0.9833767460796872</v>
+        <v>0.9849505594411752</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.321061670407589</v>
+        <v>-1.055380766900335</v>
       </c>
       <c r="D2">
-        <v>-0.927730292081583</v>
+        <v>-0.9280443711701998</v>
       </c>
       <c r="E2">
-        <v>-0.6386728755085319</v>
+        <v>-0.603926045428807</v>
       </c>
       <c r="F2">
-        <v>-0.4971335045263957</v>
+        <v>-0.4007880400123494</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.321061670407589</v>
+        <v>1.055380766900335</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1904336519090203</v>
+        <v>0.1491089370224207</v>
       </c>
       <c r="E3">
-        <v>0.8547304879069105</v>
+        <v>0.6406920195614432</v>
       </c>
       <c r="F3">
-        <v>0.8674354038320476</v>
+        <v>0.6608627082798313</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.927730292081583</v>
+        <v>0.9280443711701998</v>
       </c>
       <c r="C4">
-        <v>-0.1904336519090203</v>
+        <v>-0.1491089370224207</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7073082898649775</v>
+        <v>0.7634748043945419</v>
       </c>
       <c r="F4">
-        <v>0.5643199914549483</v>
+        <v>0.4884947170251926</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6386728755085319</v>
+        <v>0.603926045428807</v>
       </c>
       <c r="C5">
-        <v>-0.8547304879069105</v>
+        <v>-0.6406920195614432</v>
       </c>
       <c r="D5">
-        <v>-0.7073082898649775</v>
+        <v>-0.7634748043945419</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.02084654871859612</v>
+        <v>0.01920249203619189</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4971335045263957</v>
+        <v>0.4007880400123494</v>
       </c>
       <c r="C6">
-        <v>-0.8674354038320476</v>
+        <v>-0.6608627082798313</v>
       </c>
       <c r="D6">
-        <v>-0.5643199914549483</v>
+        <v>-0.4884947170251926</v>
       </c>
       <c r="E6">
-        <v>-0.02084654871859612</v>
+        <v>-0.01920249203619189</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.3091244558333295</v>
+        <v>0.02808175998349816</v>
       </c>
       <c r="D2">
-        <v>0.3691090635547518</v>
+        <v>0.1205031678349739</v>
       </c>
       <c r="E2">
-        <v>0.5555531193784313</v>
+        <v>0.2489502841909101</v>
       </c>
       <c r="F2">
-        <v>0.694625920618686</v>
+        <v>0.07327997810614484</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3091244558333295</v>
+        <v>0.02808175998349816</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.883594279890725</v>
+        <v>0.05503228765615376</v>
       </c>
       <c r="E3">
-        <v>0.5320705157219816</v>
+        <v>0.2960910953142597</v>
       </c>
       <c r="F3">
-        <v>0.5194279257756866</v>
+        <v>0.8314614488764243</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3691090635547518</v>
+        <v>0.1205031678349739</v>
       </c>
       <c r="C4">
-        <v>0.883594279890725</v>
+        <v>0.05503228765615376</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.4578540100873303</v>
+        <v>0.9498180940715946</v>
       </c>
       <c r="F4">
-        <v>0.6327622461994493</v>
+        <v>0.3481095347871608</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5555531193784313</v>
+        <v>0.2489502841909101</v>
       </c>
       <c r="C5">
-        <v>0.5320705157219816</v>
+        <v>0.2960910953142597</v>
       </c>
       <c r="D5">
-        <v>0.4578540100873303</v>
+        <v>0.9498180940715946</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9849505594411752</v>
+        <v>0.364572851590762</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.694625920618686</v>
+        <v>0.07327997810614484</v>
       </c>
       <c r="C6">
-        <v>0.5194279257756866</v>
+        <v>0.8314614488764243</v>
       </c>
       <c r="D6">
-        <v>0.6327622461994493</v>
+        <v>0.3481095347871608</v>
       </c>
       <c r="E6">
-        <v>0.9849505594411752</v>
+        <v>0.364572851590762</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.055380766900335</v>
+        <v>2.351219857963342</v>
       </c>
       <c r="D2">
-        <v>-0.9280443711701998</v>
+        <v>1.615273656052023</v>
       </c>
       <c r="E2">
-        <v>-0.603926045428807</v>
+        <v>1.184252826215566</v>
       </c>
       <c r="F2">
-        <v>-0.4007880400123494</v>
+        <v>1.880956510850863</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.055380766900335</v>
+        <v>-2.351219857963342</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1491089370224207</v>
+        <v>-2.026254021247853</v>
       </c>
       <c r="E3">
-        <v>0.6406920195614432</v>
+        <v>-1.070290208244345</v>
       </c>
       <c r="F3">
-        <v>0.6608627082798313</v>
+        <v>0.2153719861580737</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9280443711701998</v>
+        <v>-1.615273656052023</v>
       </c>
       <c r="C4">
-        <v>-0.1491089370224207</v>
+        <v>2.026254021247853</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7634748043945419</v>
+        <v>0.06365713650635595</v>
       </c>
       <c r="F4">
-        <v>0.4884947170251926</v>
+        <v>0.9587378381677085</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.603926045428807</v>
+        <v>-1.184252826215566</v>
       </c>
       <c r="C5">
-        <v>-0.6406920195614432</v>
+        <v>1.070290208244345</v>
       </c>
       <c r="D5">
-        <v>-0.7634748043945419</v>
+        <v>-0.06365713650635595</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.01920249203619189</v>
+        <v>0.9258434773928766</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4007880400123494</v>
+        <v>-1.880956510850863</v>
       </c>
       <c r="C6">
-        <v>-0.6608627082798313</v>
+        <v>-0.2153719861580737</v>
       </c>
       <c r="D6">
-        <v>-0.4884947170251926</v>
+        <v>-0.9587378381677085</v>
       </c>
       <c r="E6">
-        <v>-0.01920249203619189</v>
+        <v>-0.9258434773928766</v>
       </c>
       <c r="F6">
         <v>0</v>
